--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ravindranath Rampaul</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>22/11/2003</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2154</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2156</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>29/11/2003</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>30/11/2003</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2180</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2182</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>01/02/2004</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2184</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/02/2004</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2186</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>18/04/2004</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2213</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -984,7 +1042,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/05/2004</t>
@@ -992,7 +1049,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1032,7 +1089,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/05/2004</t>
@@ -1040,7 +1096,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1080,7 +1136,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>05/05/2004</t>
@@ -1088,7 +1143,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1128,7 +1183,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>19/05/2004</t>
@@ -1136,7 +1190,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2224</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1176,7 +1230,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>26/06/2004</t>
@@ -1184,7 +1237,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1224,7 +1277,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/06/2004</t>
@@ -1232,7 +1284,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1284,7 +1336,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1388,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1376,7 +1428,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -1384,7 +1435,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1424,7 +1475,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>07/07/2007</t>
@@ -1432,7 +1482,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1472,7 +1522,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>10/07/2007</t>
@@ -1480,7 +1529,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2710</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1520,7 +1569,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>12/07/2007</t>
@@ -1528,7 +1576,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1568,7 +1616,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -1576,7 +1623,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1628,7 +1675,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1727,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2762</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1720,7 +1767,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>04/12/2007</t>
@@ -1728,7 +1774,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2764</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1768,7 +1814,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>07/12/2007</t>
@@ -1776,7 +1821,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2765</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1828,7 +1873,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1880,7 +1925,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2776</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1920,7 +1965,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>03/02/2008</t>
@@ -1928,7 +1972,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2783</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1980,7 +2024,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2032,7 +2076,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2128,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2124,7 +2168,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -2132,7 +2175,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2172,7 +2215,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>03/07/2009</t>
@@ -2180,7 +2222,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2220,7 +2262,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -2228,7 +2269,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2280,7 +2321,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2332,7 +2373,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2372,7 +2413,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>12/02/2010</t>
@@ -2380,7 +2420,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2420,7 +2460,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/02/2010</t>
@@ -2428,7 +2467,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2480,7 +2519,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2532,7 +2571,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2572,7 +2611,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>12/03/2010</t>
@@ -2580,7 +2618,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2620,7 +2658,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>14/03/2010</t>
@@ -2628,7 +2665,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2668,7 +2705,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>13/04/2010</t>
@@ -2676,7 +2712,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3107</t>
+          <t>3107</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2716,7 +2752,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>15/04/2010</t>
@@ -2724,7 +2759,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2776,7 +2811,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2828,7 +2863,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2880,7 +2915,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2920,7 +2955,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -2928,7 +2962,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2968,7 +3002,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>31/01/2011</t>
@@ -2976,7 +3009,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3227</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3028,7 +3061,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3080,7 +3113,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3132,7 +3165,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3184,7 +3217,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3236,7 +3269,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3276,7 +3309,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>02/05/2011</t>
@@ -3284,7 +3316,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3324,7 +3356,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -3332,7 +3363,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3384,7 +3415,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3436,7 +3467,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3476,7 +3507,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -3484,7 +3514,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3524,7 +3554,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -3532,7 +3561,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3584,7 +3613,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3624,7 +3653,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>05/12/2011</t>
@@ -3632,7 +3660,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3684,7 +3712,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3736,7 +3764,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3788,7 +3816,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3828,7 +3856,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -3836,7 +3863,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3876,7 +3903,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -3884,7 +3910,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3936,7 +3962,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3988,7 +4014,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4040,7 +4066,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4080,7 +4106,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>05/12/2012</t>
@@ -4088,7 +4113,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4128,7 +4153,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>07/06/2013</t>
@@ -4136,7 +4160,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4188,7 +4212,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4228,7 +4252,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>14/06/2013</t>
@@ -4236,7 +4259,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4276,7 +4299,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>28/06/2013</t>
@@ -4284,7 +4306,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4336,7 +4358,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4376,7 +4398,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>24/11/2013</t>
@@ -4384,7 +4405,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4424,7 +4445,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -4432,7 +4452,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4472,7 +4492,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>26/12/2013</t>
@@ -4480,7 +4499,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4520,7 +4539,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -4528,7 +4546,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4568,7 +4586,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -4576,7 +4593,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4628,7 +4645,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4680,7 +4697,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4720,7 +4737,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>20/08/2014</t>
@@ -4728,7 +4744,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4768,7 +4784,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>22/08/2014</t>
@@ -4776,7 +4791,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4816,7 +4831,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -4824,7 +4838,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4864,7 +4878,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>08/10/2014</t>
@@ -4872,7 +4885,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4924,7 +4937,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4976,7 +4989,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5028,7 +5041,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5067,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5089,7 +5102,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5126,7 +5139,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2154</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5163,7 +5176,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2156</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5200,7 +5213,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5237,7 +5250,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5274,7 +5287,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2180</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5311,7 +5324,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2184</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5348,7 +5361,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2186</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5385,7 +5398,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5422,7 +5435,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5459,7 +5472,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5496,7 +5509,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5533,7 +5546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2224</t>
+          <t>2224</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5570,7 +5583,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5607,7 +5620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5644,7 +5657,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5681,7 +5694,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5718,7 +5731,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5755,7 +5768,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5792,7 +5805,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2710</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5829,7 +5842,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5866,7 +5879,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5903,7 +5916,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5940,7 +5953,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2762</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5977,7 +5990,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2764</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6014,7 +6027,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2765</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6051,7 +6064,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6088,7 +6101,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2776</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6125,7 +6138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2783</t>
+          <t>2783</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6162,7 +6175,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6199,7 +6212,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6236,7 +6249,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6273,7 +6286,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6310,7 +6323,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6347,7 +6360,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6384,7 +6397,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6421,7 +6434,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6458,7 +6471,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6495,7 +6508,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6532,7 +6545,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6569,7 +6582,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6606,7 +6619,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6643,7 +6656,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3107</t>
+          <t>3107</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6680,7 +6693,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6717,7 +6730,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6754,7 +6767,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6791,7 +6804,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6828,7 +6841,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6865,7 +6878,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6902,7 +6915,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6939,7 +6952,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3276</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6976,7 +6989,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7013,7 +7026,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7050,7 +7063,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7087,7 +7100,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7124,7 +7137,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7161,7 +7174,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7198,7 +7211,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7235,7 +7248,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7272,7 +7285,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7309,7 +7322,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7346,7 +7359,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7383,7 +7396,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7420,7 +7433,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7457,7 +7470,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7494,7 +7507,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7531,7 +7544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7568,7 +7581,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7605,7 +7618,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7642,7 +7655,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7679,7 +7692,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7716,7 +7729,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7753,7 +7766,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7790,7 +7803,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7827,7 +7840,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7864,7 +7877,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7901,7 +7914,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7938,7 +7951,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3593</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7975,7 +7988,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8012,7 +8025,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8049,7 +8062,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8086,7 +8099,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8123,7 +8136,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8160,7 +8173,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8197,7 +8210,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8234,7 +8247,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8271,7 +8284,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8308,7 +8321,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8345,7 +8358,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8373,6 +8386,445 @@
           <t>1/34</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3452</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3506</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.44%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3855</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8444,10 +8445,6 @@
           <t>3452</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8490,10 +8487,6 @@
           <t>3510</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8506,10 +8499,6 @@
           <t>3513</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8522,15 +8511,360 @@
           <t>3520</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3593</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.44%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3855</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3452</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3506</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3520</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8538,17 +8872,8 @@
           <t>3580</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8558,13 +8883,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8572,13 +8890,14 @@
           <t>3583</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8588,17 +8907,8 @@
           <t>3593</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8606,29 +8916,8 @@
           <t>3596</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.63%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8636,15 +8925,14 @@
           <t>3622</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8654,15 +8942,14 @@
           <t>3625</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8672,13 +8959,14 @@
           <t>3629</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8688,15 +8976,14 @@
           <t>3655</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8706,27 +8993,14 @@
           <t>3657</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.44%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8736,29 +9010,8 @@
           <t>3661</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8766,27 +9019,14 @@
           <t>3678</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>11</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8796,11 +9036,16 @@
           <t>3680</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8808,11 +9053,16 @@
           <t>3853</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8820,11 +9070,16 @@
           <t>3855</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3149.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>22/11/2003</t>
@@ -657,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>29/11/2003</t>
@@ -704,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>30/11/2003</t>
@@ -855,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>01/02/2004</t>
@@ -902,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/02/2004</t>
@@ -949,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>18/04/2004</t>
@@ -996,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -1043,6 +1048,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/05/2004</t>
@@ -1090,6 +1096,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/05/2004</t>
@@ -1137,6 +1144,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>05/05/2004</t>
@@ -1184,6 +1192,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>19/05/2004</t>
@@ -1231,6 +1240,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>26/06/2004</t>
@@ -1278,6 +1288,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/06/2004</t>
@@ -1429,6 +1440,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -1476,6 +1488,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>07/07/2007</t>
@@ -1523,6 +1536,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>10/07/2007</t>
@@ -1570,6 +1584,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>12/07/2007</t>
@@ -1617,6 +1632,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -1629,7 +1645,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1768,6 +1784,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>04/12/2007</t>
@@ -1815,6 +1832,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>07/12/2007</t>
@@ -1966,6 +1984,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>03/02/2008</t>
@@ -2169,6 +2188,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>28/06/2009</t>
@@ -2216,6 +2236,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>03/07/2009</t>
@@ -2263,6 +2284,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -2414,6 +2436,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>12/02/2010</t>
@@ -2461,6 +2484,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/02/2010</t>
@@ -2612,6 +2636,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>12/03/2010</t>
@@ -2659,6 +2684,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>14/03/2010</t>
@@ -2706,6 +2732,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>13/04/2010</t>
@@ -2753,6 +2780,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>15/04/2010</t>
@@ -2956,6 +2984,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -3003,6 +3032,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>31/01/2011</t>
@@ -3310,6 +3340,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>02/05/2011</t>
@@ -3357,6 +3388,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>05/05/2011</t>
@@ -3508,6 +3540,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -3555,6 +3588,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -3654,6 +3688,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>05/12/2011</t>
@@ -3857,6 +3892,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>05/07/2012</t>
@@ -3904,6 +3940,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -4107,6 +4144,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>05/12/2012</t>
@@ -4154,6 +4192,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>07/06/2013</t>
@@ -4253,6 +4292,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>14/06/2013</t>
@@ -4300,6 +4340,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>28/06/2013</t>
@@ -4399,6 +4440,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>24/11/2013</t>
@@ -4446,6 +4488,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -4493,6 +4536,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>26/12/2013</t>
@@ -4540,6 +4584,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -4587,6 +4632,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>28/02/2014</t>
@@ -4738,6 +4784,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>20/08/2014</t>
@@ -4785,6 +4832,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>22/08/2014</t>
@@ -4832,6 +4880,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -4879,6 +4928,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>08/10/2014</t>
@@ -8391,697 +8441,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3452</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3506</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3510</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3513</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3520</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3596</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.63%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3657</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.44%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3678</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3853</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3855</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3452</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3506</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3510</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3513</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3520</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3581</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3596</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3622</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3625</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3657</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3678</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3853</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3855</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>